--- a/data/trans_orig/P13A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50DB999C-BDA0-43FC-A609-E56D7E25327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95DA7D42-13A0-4D9F-A939-A95D2C51427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{344AF8BF-0C4D-458A-A83B-C51A2722A77F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7CF5C82-4A59-40FD-B02D-ABD620178BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="140">
   <si>
     <t>Población que sufre dolor de cabeza 15 días o más al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>5,37%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -113,19 +113,19 @@
     <t>94,63%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>97,4%</t>
   </si>
   <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -137,316 +137,322 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>2,84%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -861,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F453C6-B162-4570-9369-B05A3160AF0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B55FA2-F1E5-4ED7-8FFA-796CD5904838}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1328,10 +1334,10 @@
         <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1346,13 +1352,13 @@
         <v>547767</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>815</v>
@@ -1361,28 +1367,28 @@
         <v>561306</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1353</v>
       </c>
       <c r="N11" s="7">
-        <v>1109073</v>
+        <v>1109072</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1424,7 +1430,7 @@
         <v>1385</v>
       </c>
       <c r="N12" s="7">
-        <v>1134737</v>
+        <v>1134736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -1438,7 +1444,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1450,13 +1456,13 @@
         <v>7721</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -1465,13 +1471,13 @@
         <v>48029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -1480,13 +1486,13 @@
         <v>55750</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,13 +1507,13 @@
         <v>715147</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1075</v>
@@ -1516,13 +1522,13 @@
         <v>696826</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1732</v>
@@ -1531,13 +1537,13 @@
         <v>1411974</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,7 +1599,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1605,13 +1611,13 @@
         <v>10590</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -1620,13 +1626,13 @@
         <v>33224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -1635,13 +1641,13 @@
         <v>43814</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,13 +1662,13 @@
         <v>585698</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -1671,13 +1677,13 @@
         <v>559738</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1589</v>
@@ -1686,13 +1692,13 @@
         <v>1145435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,7 +1754,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1760,13 +1766,13 @@
         <v>9062</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -1775,13 +1781,13 @@
         <v>39597</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -1790,13 +1796,13 @@
         <v>48659</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,13 +1817,13 @@
         <v>683763</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>1634</v>
@@ -1826,13 +1832,13 @@
         <v>983732</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>2641</v>
@@ -1841,13 +1847,13 @@
         <v>1667494</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,13 +1921,13 @@
         <v>38855</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -1930,13 +1936,13 @@
         <v>168246</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>271</v>
@@ -1945,13 +1951,13 @@
         <v>207101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,13 +1972,13 @@
         <v>3333929</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>5111</v>
@@ -1981,13 +1987,13 @@
         <v>3624434</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>8430</v>
@@ -1996,13 +2002,13 @@
         <v>6958363</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,7 +2064,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95DA7D42-13A0-4D9F-A939-A95D2C51427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F04F1D-932A-4052-BC9D-BCE2C4FE7A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7CF5C82-4A59-40FD-B02D-ABD620178BF7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4DD5139B-F0B3-4DF9-B174-E4092C388C52}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B55FA2-F1E5-4ED7-8FFA-796CD5904838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD99BE9-7508-41CE-88D7-5FCFB56575E6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F04F1D-932A-4052-BC9D-BCE2C4FE7A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25700D9E-47ED-4AF2-941A-DA6E75D69D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4DD5139B-F0B3-4DF9-B174-E4092C388C52}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1DB01AA9-5EF4-4AF4-8948-2CD06AE269A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="138">
   <si>
     <t>Población que sufre dolor de cabeza 15 días o más al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -83,376 +83,370 @@
     <t>5,37%</t>
   </si>
   <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>97,5%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD99BE9-7508-41CE-88D7-5FCFB56575E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C07CA56-147B-4AAC-A3BF-D7C7163537C0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1334,10 +1328,10 @@
         <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1352,13 +1346,13 @@
         <v>547767</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>815</v>
@@ -1367,28 +1361,28 @@
         <v>561306</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1353</v>
       </c>
       <c r="N11" s="7">
-        <v>1109072</v>
+        <v>1109073</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1430,7 +1424,7 @@
         <v>1385</v>
       </c>
       <c r="N12" s="7">
-        <v>1134736</v>
+        <v>1134737</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -1444,7 +1438,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1456,13 +1450,13 @@
         <v>7721</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -1471,13 +1465,13 @@
         <v>48029</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -1486,13 +1480,13 @@
         <v>55750</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1507,13 +1501,13 @@
         <v>715147</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1075</v>
@@ -1522,13 +1516,13 @@
         <v>696826</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1732</v>
@@ -1537,13 +1531,13 @@
         <v>1411974</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1599,7 +1593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1611,13 +1605,13 @@
         <v>10590</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -1626,13 +1620,13 @@
         <v>33224</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -1641,13 +1635,13 @@
         <v>43814</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1656,13 @@
         <v>585698</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -1677,13 +1671,13 @@
         <v>559738</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1589</v>
@@ -1692,13 +1686,13 @@
         <v>1145435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1748,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1766,13 +1760,13 @@
         <v>9062</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -1781,13 +1775,13 @@
         <v>39597</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -1796,13 +1790,13 @@
         <v>48659</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1811,13 @@
         <v>683763</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>1634</v>
@@ -1832,13 +1826,13 @@
         <v>983732</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>2641</v>
@@ -1847,13 +1841,13 @@
         <v>1667494</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1915,13 @@
         <v>38855</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -1936,13 +1930,13 @@
         <v>168246</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>271</v>
@@ -1951,13 +1945,13 @@
         <v>207101</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1966,13 @@
         <v>3333929</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>5111</v>
@@ -1987,13 +1981,13 @@
         <v>3624434</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>8430</v>
@@ -2002,13 +1996,13 @@
         <v>6958363</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2058,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25700D9E-47ED-4AF2-941A-DA6E75D69D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D65E329A-29C6-4EDC-BEF3-B9F7253BEDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1DB01AA9-5EF4-4AF4-8948-2CD06AE269A1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{05ADEEEE-91A2-468B-9710-94FEAC9D1ECF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="155">
   <si>
     <t>Población que sufre dolor de cabeza 15 días o más al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,22 +80,22 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,343 +110,394 @@
     <t>100%</t>
   </si>
   <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>95,05%</t>
   </si>
   <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -861,8 +912,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C07CA56-147B-4AAC-A3BF-D7C7163537C0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB5D16F-41CC-4163-81A4-93D5BB3A741E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -997,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>18979</v>
+        <v>16480</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1012,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>18979</v>
+        <v>16480</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1033,7 +1084,7 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1048,7 +1099,7 @@
         <v>196</v>
       </c>
       <c r="I5" s="7">
-        <v>334129</v>
+        <v>294973</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1063,7 +1114,7 @@
         <v>368</v>
       </c>
       <c r="N5" s="7">
-        <v>711807</v>
+        <v>694960</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1084,7 +1135,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -1099,7 +1150,7 @@
         <v>205</v>
       </c>
       <c r="I6" s="7">
-        <v>353108</v>
+        <v>311453</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -1114,7 +1165,7 @@
         <v>377</v>
       </c>
       <c r="N6" s="7">
-        <v>730786</v>
+        <v>711440</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -1137,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>4520</v>
+        <v>4434</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -1152,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>9715</v>
+        <v>8819</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1167,7 +1218,7 @@
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>14234</v>
+        <v>13253</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -1188,7 +1239,7 @@
         <v>298</v>
       </c>
       <c r="D8" s="7">
-        <v>423876</v>
+        <v>419113</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1203,7 +1254,7 @@
         <v>449</v>
       </c>
       <c r="I8" s="7">
-        <v>488703</v>
+        <v>502526</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1218,7 +1269,7 @@
         <v>747</v>
       </c>
       <c r="N8" s="7">
-        <v>912580</v>
+        <v>921639</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1239,7 +1290,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -1254,7 +1305,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>498418</v>
+        <v>511345</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -1269,7 +1320,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>926814</v>
+        <v>934892</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -1292,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>6962</v>
+        <v>6979</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1307,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>18702</v>
+        <v>17660</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1322,16 +1373,16 @@
         <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>25664</v>
+        <v>24639</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,46 +1394,46 @@
         <v>538</v>
       </c>
       <c r="D11" s="7">
-        <v>547767</v>
+        <v>526996</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>815</v>
       </c>
       <c r="I11" s="7">
-        <v>561306</v>
+        <v>521768</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1353</v>
       </c>
       <c r="N11" s="7">
-        <v>1109073</v>
+        <v>1048764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,7 +1445,7 @@
         <v>543</v>
       </c>
       <c r="D12" s="7">
-        <v>554729</v>
+        <v>533975</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -1409,7 +1460,7 @@
         <v>842</v>
       </c>
       <c r="I12" s="7">
-        <v>580008</v>
+        <v>539428</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -1424,7 +1475,7 @@
         <v>1385</v>
       </c>
       <c r="N12" s="7">
-        <v>1134737</v>
+        <v>1073403</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -1438,7 +1489,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1447,46 +1498,46 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>7721</v>
+        <v>7234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
       </c>
       <c r="I13" s="7">
-        <v>48029</v>
+        <v>43025</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>55750</v>
+        <v>50259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,46 +1549,46 @@
         <v>657</v>
       </c>
       <c r="D14" s="7">
-        <v>715147</v>
+        <v>879477</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1075</v>
       </c>
       <c r="I14" s="7">
-        <v>696826</v>
+        <v>667669</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1732</v>
       </c>
       <c r="N14" s="7">
-        <v>1411974</v>
+        <v>1547145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,7 +1600,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722868</v>
+        <v>886711</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -1564,7 +1615,7 @@
         <v>1137</v>
       </c>
       <c r="I15" s="7">
-        <v>744855</v>
+        <v>710694</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -1579,7 +1630,7 @@
         <v>1801</v>
       </c>
       <c r="N15" s="7">
-        <v>1467724</v>
+        <v>1597404</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -1593,7 +1644,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1602,46 +1653,46 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>10590</v>
+        <v>10183</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
       </c>
       <c r="I16" s="7">
-        <v>33224</v>
+        <v>30418</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
       </c>
       <c r="N16" s="7">
-        <v>43814</v>
+        <v>40601</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,46 +1704,46 @@
         <v>647</v>
       </c>
       <c r="D17" s="7">
-        <v>585698</v>
+        <v>547418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
       </c>
       <c r="I17" s="7">
-        <v>559738</v>
+        <v>513825</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1589</v>
       </c>
       <c r="N17" s="7">
-        <v>1145435</v>
+        <v>1061243</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,7 +1755,7 @@
         <v>659</v>
       </c>
       <c r="D18" s="7">
-        <v>596288</v>
+        <v>557601</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -1719,7 +1770,7 @@
         <v>996</v>
       </c>
       <c r="I18" s="7">
-        <v>592962</v>
+        <v>544243</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -1734,7 +1785,7 @@
         <v>1655</v>
       </c>
       <c r="N18" s="7">
-        <v>1189249</v>
+        <v>1101844</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -1748,55 +1799,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>9062</v>
+        <v>3946</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>39597</v>
+        <v>16407</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="N19" s="7">
-        <v>48659</v>
+        <v>20353</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,49 +1856,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1007</v>
+        <v>560</v>
       </c>
       <c r="D20" s="7">
-        <v>683763</v>
+        <v>361222</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>1634</v>
+        <v>794</v>
       </c>
       <c r="I20" s="7">
-        <v>983732</v>
+        <v>590844</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>2641</v>
+        <v>1354</v>
       </c>
       <c r="N20" s="7">
-        <v>1667494</v>
+        <v>952066</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,10 +1907,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1021</v>
+        <v>566</v>
       </c>
       <c r="D21" s="7">
-        <v>692825</v>
+        <v>365168</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -1871,10 +1922,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>1701</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1023329</v>
+        <v>607251</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -1886,10 +1937,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>2722</v>
+        <v>1391</v>
       </c>
       <c r="N21" s="7">
-        <v>1716153</v>
+        <v>972419</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -1903,55 +1954,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>38855</v>
+        <v>4618</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>168246</v>
+        <v>19024</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="N22" s="7">
-        <v>207101</v>
+        <v>23642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,49 +2011,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3319</v>
+        <v>447</v>
       </c>
       <c r="D23" s="7">
-        <v>3333929</v>
+        <v>276461</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
-        <v>5111</v>
+        <v>840</v>
       </c>
       <c r="I23" s="7">
-        <v>3624434</v>
+        <v>404911</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="M23" s="7">
-        <v>8430</v>
+        <v>1287</v>
       </c>
       <c r="N23" s="7">
-        <v>6958363</v>
+        <v>681372</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,63 +2062,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>455</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281079</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>876</v>
+      </c>
+      <c r="I24" s="7">
+        <v>423935</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1331</v>
+      </c>
+      <c r="N24" s="7">
+        <v>705014</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>42</v>
+      </c>
+      <c r="D25" s="7">
+        <v>37393</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="7">
+        <v>229</v>
+      </c>
+      <c r="I25" s="7">
+        <v>151834</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="7">
+        <v>271</v>
+      </c>
+      <c r="N25" s="7">
+        <v>189227</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3319</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3410675</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5111</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3496514</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8430</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6907189</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3361</v>
       </c>
-      <c r="D24" s="7">
-        <v>3372784</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3448068</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>5340</v>
       </c>
-      <c r="I24" s="7">
-        <v>3792680</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3648348</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>8701</v>
       </c>
-      <c r="N24" s="7">
-        <v>7165464</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>137</v>
+      <c r="N27" s="7">
+        <v>7096416</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
